--- a/biology/Botanique/Liste_des_parcs_et_jardins_de_Bruxelles/Liste_des_parcs_et_jardins_de_Bruxelles.xlsx
+++ b/biology/Botanique/Liste_des_parcs_et_jardins_de_Bruxelles/Liste_des_parcs_et_jardins_de_Bruxelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article établit la liste des parcs et jardins de la région de Bruxelles-Capitale, classés par commune.
 Un parc ou un jardin situé sur plusieurs communes, sera classé uniquement dans la commune qui en possède la plus grande superficie.
@@ -512,7 +524,9 @@
           <t>Anderlecht</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parc Astrid dans le quartier du Meir
 Parc du Busselenberg dans le quartier de Veeweyde
@@ -558,7 +572,9 @@
           <t>Auderghem</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parc du Bergoje
 Jardin botanique Jean Massart
@@ -593,7 +609,9 @@
           <t>Berchem-Sainte-Agathe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bois du Wilder</t>
         </is>
@@ -623,7 +641,9 @@
           <t>Bruxelles-ville</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mont des Arts
 Parc de Bruxelles
@@ -631,24 +651,160 @@
 Parc Fontainas
 Parc Maximilien
 Jardin du Petit Sablon
-Parc de la Porte de Hal
-Extension Est
-Jardin de la vallée du Maelbeek
+Parc de la Porte de Hal</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bruxelles-ville</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Extension Est</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jardin de la vallée du Maelbeek
 Parc du Cinquantenaire
 Square Frère-Orban
 Parc Léopold
 Squares Marie-Louise, Ambiorix, Palmerson, Marguerite et Gutenberg
 Square de Meeûs (partie nord)
-Parc de la Senne
-Extension Sud
-Jardin de l'Abbaye de la Cambre
+Parc de la Senne</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bruxelles-ville</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Extension Sud</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jardin de l'Abbaye de la Cambre
 Bois de la Cambre
-Jardin du Roi
-Haren
-Parc Arthur Maes
-Parc de Haren
-Laeken
-Parc de Laeken
+Jardin du Roi</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bruxelles-ville</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Haren</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Parc Arthur Maes
+Parc de Haren</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bruxelles-ville</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Laeken</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Parc de Laeken
 Serres royales de Laeken
 Jardins du Fleuriste du Stuyvenberg
 Parc Tour et Taxis
@@ -656,68 +812,106 @@
 Jardin du Pavillon chinois
 Square Prince Léopold
 Square du 21 Juillet
-Parc Annie Cordy
-Neder-Over-Heembeek
-Parc Meudon</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Parc Annie Cordy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bruxelles-ville</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Neder-Over-Heembeek</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Parc Meudon</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Etterbeek</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jardin de Fontenay-sous-Bois
 Jardin Jean-Félix Hap</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Evere</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Parc du Bon Pasteur
 Parc du Doolegt
@@ -725,31 +919,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Forest</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Parc de l'Abbaye de Forest
 Parc Jacques Brel
@@ -759,61 +955,65 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Ganshoren</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Parc des Marais de Ganshoren</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Ixelles</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Place de Carl
 Bois des Commères
@@ -829,31 +1029,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Jette</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Bois de Dieleghem
 Parc Garcet
@@ -866,61 +1068,65 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Koekelberg</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Parc Élisabeth</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Molenbeek-Saint-Jean</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Parc de la Fonderie
 Parc du Karreveld
@@ -930,31 +1136,33 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Saint-Gilles</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Parc de Forest
 Jardin Fontainas
@@ -963,31 +1171,33 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Saint-Josse-ten-Noode</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Jardin Botanique
 Square Félix Delhaye
@@ -996,31 +1206,33 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Schaerbeek</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Parc Albert Ier
 Parc Gaucheret
@@ -1035,31 +1247,33 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Uccle</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Parc Brugmann
 Plateau Avijl
@@ -1073,31 +1287,33 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Watermael-Boitsfort</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Parc du Gruyer
 Parc de la Héronnière
@@ -1108,31 +1324,33 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Woluwe-Saint-Lambert</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Jardin des plantes médicinales Paul Moens
 Parc de Roodebeek
@@ -1144,31 +1362,33 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Bruxelles</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Woluwe-Saint-Pierre</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Parc Crousse
 Parc des Étangs Mellaerts
